--- a/data/branch_office/data.xlsx
+++ b/data/branch_office/data.xlsx
@@ -441,13 +441,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2">
         <v>34.31382333</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2">
         <v>134.03022889</v>
       </c>
       <c r="D2" t="str">
@@ -462,14 +462,11 @@
       <c r="G2" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
-      <c r="H2" t="str">
-        <v/>
-      </c>
       <c r="I2" t="str">
         <v>月火水木金</v>
       </c>
       <c r="J2" t="str">
-        <v>08:30</v>
+        <v>09:00</v>
       </c>
       <c r="K2" t="str">
         <v>17:00</v>
@@ -479,20 +476,20 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>34.30998</v>
-      </c>
-      <c r="C3" t="str">
-        <v>134.05251889</v>
+      <c r="B3">
+        <v>34.31875</v>
+      </c>
+      <c r="C3">
+        <v>134.05385</v>
       </c>
       <c r="D3" t="str">
         <v>太田出張所</v>
       </c>
       <c r="E3" t="str">
-        <v>高松市伏石町2071-16</v>
+        <v>高松市伏石町2016-37</v>
       </c>
       <c r="F3" t="str">
         <v>087-866-1796</v>
@@ -500,14 +497,11 @@
       <c r="G3" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
-      <c r="H3" t="str">
-        <v/>
-      </c>
       <c r="I3" t="str">
         <v>月火水木金</v>
       </c>
       <c r="J3" t="str">
-        <v>08:30</v>
+        <v>09:00</v>
       </c>
       <c r="K3" t="str">
         <v>17:00</v>
@@ -517,13 +511,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4">
         <v>34.32624528</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4">
         <v>134.07670778</v>
       </c>
       <c r="D4" t="str">
@@ -538,14 +532,11 @@
       <c r="G4" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
-      <c r="H4" t="str">
-        <v/>
-      </c>
       <c r="I4" t="str">
         <v>月火水木金</v>
       </c>
       <c r="J4" t="str">
-        <v>08:30</v>
+        <v>09:00</v>
       </c>
       <c r="K4" t="str">
         <v>17:00</v>
@@ -555,13 +546,13 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5">
         <v>34.33566417</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5">
         <v>134.10751306</v>
       </c>
       <c r="D5" t="str">
@@ -576,14 +567,11 @@
       <c r="G5" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
-      <c r="H5" t="str">
-        <v/>
-      </c>
       <c r="I5" t="str">
         <v>月火水木金</v>
       </c>
       <c r="J5" t="str">
-        <v>08:30</v>
+        <v>09:00</v>
       </c>
       <c r="K5" t="str">
         <v>17:00</v>
@@ -593,13 +581,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6">
         <v>34.34371056</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6">
         <v>134.10129944</v>
       </c>
       <c r="D6" t="str">
@@ -614,14 +602,11 @@
       <c r="G6" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
-      <c r="H6" t="str">
-        <v/>
-      </c>
       <c r="I6" t="str">
         <v>月火水木金</v>
       </c>
       <c r="J6" t="str">
-        <v>08:30</v>
+        <v>09:00</v>
       </c>
       <c r="K6" t="str">
         <v>17:00</v>
@@ -631,13 +616,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7">
         <v>34.29657167</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7">
         <v>134.11258333</v>
       </c>
       <c r="D7" t="str">
@@ -652,14 +637,11 @@
       <c r="G7" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
-      <c r="H7" t="str">
-        <v/>
-      </c>
       <c r="I7" t="str">
         <v>月火水木金</v>
       </c>
       <c r="J7" t="str">
-        <v>08:30</v>
+        <v>09:00</v>
       </c>
       <c r="K7" t="str">
         <v>17:00</v>
@@ -669,13 +651,13 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8">
         <v>34.30697278</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8">
         <v>134.08946833</v>
       </c>
       <c r="D8" t="str">
@@ -690,14 +672,11 @@
       <c r="G8" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
-      <c r="H8" t="str">
-        <v/>
-      </c>
       <c r="I8" t="str">
         <v>月火水木金</v>
       </c>
       <c r="J8" t="str">
-        <v>08:30</v>
+        <v>09:00</v>
       </c>
       <c r="K8" t="str">
         <v>17:00</v>
@@ -707,20 +686,20 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="str">
-        <v>34.30154806</v>
-      </c>
-      <c r="C9" t="str">
-        <v>134.07483389</v>
+      <c r="B9">
+        <v>34.29778</v>
+      </c>
+      <c r="C9">
+        <v>134.07625</v>
       </c>
       <c r="D9" t="str">
         <v>林出張所</v>
       </c>
       <c r="E9" t="str">
-        <v>高松市林町1405-6</v>
+        <v>高松市林町329-1</v>
       </c>
       <c r="F9" t="str">
         <v>087-866-2095</v>
@@ -728,14 +707,11 @@
       <c r="G9" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
-      <c r="H9" t="str">
-        <v/>
-      </c>
       <c r="I9" t="str">
         <v>月火水木金</v>
       </c>
       <c r="J9" t="str">
-        <v>08:30</v>
+        <v>09:00</v>
       </c>
       <c r="K9" t="str">
         <v>17:00</v>
@@ -745,13 +721,13 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10">
         <v>34.27771639</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10">
         <v>134.06947833</v>
       </c>
       <c r="D10" t="str">
@@ -766,14 +742,11 @@
       <c r="G10" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
-      <c r="H10" t="str">
-        <v/>
-      </c>
       <c r="I10" t="str">
         <v>月火水木金</v>
       </c>
       <c r="J10" t="str">
-        <v>08:30</v>
+        <v>09:00</v>
       </c>
       <c r="K10" t="str">
         <v>17:00</v>
@@ -783,13 +756,13 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11">
         <v>34.29067333</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11">
         <v>134.02893556</v>
       </c>
       <c r="D11" t="str">
@@ -804,14 +777,11 @@
       <c r="G11" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
-      <c r="H11" t="str">
-        <v/>
-      </c>
       <c r="I11" t="str">
         <v>月火水木金</v>
       </c>
       <c r="J11" t="str">
-        <v>08:30</v>
+        <v>09:00</v>
       </c>
       <c r="K11" t="str">
         <v>17:00</v>
@@ -821,13 +791,13 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B12">
         <v>34.29044611</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12">
         <v>134.05146667</v>
       </c>
       <c r="D12" t="str">
@@ -842,14 +812,11 @@
       <c r="G12" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
-      <c r="H12" t="str">
-        <v/>
-      </c>
       <c r="I12" t="str">
         <v>月火水木金</v>
       </c>
       <c r="J12" t="str">
-        <v>08:30</v>
+        <v>09:00</v>
       </c>
       <c r="K12" t="str">
         <v>17:00</v>
@@ -859,13 +826,13 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B13">
         <v>34.26941694</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C13">
         <v>134.00998778</v>
       </c>
       <c r="D13" t="str">
@@ -880,14 +847,11 @@
       <c r="G13" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
-      <c r="H13" t="str">
-        <v/>
-      </c>
       <c r="I13" t="str">
         <v>月火水木金</v>
       </c>
       <c r="J13" t="str">
-        <v>08:30</v>
+        <v>09:00</v>
       </c>
       <c r="K13" t="str">
         <v>17:00</v>
@@ -897,13 +861,13 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B14">
         <v>34.28543722</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14">
         <v>134.00547111</v>
       </c>
       <c r="D14" t="str">
@@ -918,14 +882,11 @@
       <c r="G14" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
-      <c r="H14" t="str">
-        <v/>
-      </c>
       <c r="I14" t="str">
         <v>月火水木金</v>
       </c>
       <c r="J14" t="str">
-        <v>08:30</v>
+        <v>09:00</v>
       </c>
       <c r="K14" t="str">
         <v>17:00</v>
@@ -935,13 +896,13 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B15">
         <v>34.30092139</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C15">
         <v>133.99466861</v>
       </c>
       <c r="D15" t="str">
@@ -956,14 +917,11 @@
       <c r="G15" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
-      <c r="H15" t="str">
-        <v/>
-      </c>
       <c r="I15" t="str">
         <v>月火水木金</v>
       </c>
       <c r="J15" t="str">
-        <v>08:30</v>
+        <v>09:00</v>
       </c>
       <c r="K15" t="str">
         <v>17:00</v>
@@ -973,13 +931,13 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="str">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B16">
         <v>34.329246</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C16">
         <v>134.005738</v>
       </c>
       <c r="D16" t="str">
@@ -994,14 +952,11 @@
       <c r="G16" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
-      <c r="H16" t="str">
-        <v/>
-      </c>
       <c r="I16" t="str">
         <v>月火水木金</v>
       </c>
       <c r="J16" t="str">
-        <v>08:30</v>
+        <v>09:00</v>
       </c>
       <c r="K16" t="str">
         <v>17:00</v>
@@ -1011,13 +966,13 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="str">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B17">
         <v>34.327365</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C17">
         <v>133.993302</v>
       </c>
       <c r="D17" t="str">
@@ -1032,14 +987,11 @@
       <c r="G17" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
-      <c r="H17" t="str">
-        <v/>
-      </c>
       <c r="I17" t="str">
         <v>月火水木金</v>
       </c>
       <c r="J17" t="str">
-        <v>08:30</v>
+        <v>09:00</v>
       </c>
       <c r="K17" t="str">
         <v>17:00</v>
@@ -1049,13 +1001,13 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="str">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B18">
         <v>34.359028</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18">
         <v>133.968806</v>
       </c>
       <c r="D18" t="str">
@@ -1070,14 +1022,11 @@
       <c r="G18" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
-      <c r="H18" t="str">
-        <v/>
-      </c>
       <c r="I18" t="str">
         <v>月火水木金</v>
       </c>
       <c r="J18" t="str">
-        <v>08:30</v>
+        <v>09:00</v>
       </c>
       <c r="K18" t="str">
         <v>17:00</v>
@@ -1087,13 +1036,13 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="str">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B19">
         <v>34.42212</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C19">
         <v>134.05479</v>
       </c>
       <c r="D19" t="str">
@@ -1108,14 +1057,11 @@
       <c r="G19" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
-      <c r="H19" t="str">
-        <v/>
-      </c>
       <c r="I19" t="str">
         <v>月火水木金</v>
       </c>
       <c r="J19" t="str">
-        <v>08:30</v>
+        <v>09:00</v>
       </c>
       <c r="K19" t="str">
         <v>17:00</v>
@@ -1125,13 +1071,13 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="str">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="str">
+      <c r="B20">
         <v>34.39210389</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C20">
         <v>134.0517525</v>
       </c>
       <c r="D20" t="str">
@@ -1146,14 +1092,11 @@
       <c r="G20" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
-      <c r="H20" t="str">
-        <v/>
-      </c>
       <c r="I20" t="str">
         <v>月火水木金</v>
       </c>
       <c r="J20" t="str">
-        <v>08:30</v>
+        <v>09:00</v>
       </c>
       <c r="K20" t="str">
         <v>17:00</v>

--- a/data/branch_office/data.xlsx
+++ b/data/branch_office/data.xlsx
@@ -441,14 +441,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" t="str">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="str">
         <v>34.31382333</v>
       </c>
-      <c r="C2">
-        <v>134.03022889</v>
+      <c r="C2" t="str">
+        <v>134.0302289</v>
       </c>
       <c r="D2" t="str">
         <v>鶴尾出張所</v>
@@ -462,6 +462,9 @@
       <c r="G2" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
       <c r="I2" t="str">
         <v>月火水木金</v>
       </c>
@@ -476,13 +479,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" t="str">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="str">
         <v>34.31875</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="str">
         <v>134.05385</v>
       </c>
       <c r="D3" t="str">
@@ -497,6 +500,9 @@
       <c r="G3" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
       <c r="I3" t="str">
         <v>月火水木金</v>
       </c>
@@ -511,14 +517,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" t="str">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="str">
         <v>34.32624528</v>
       </c>
-      <c r="C4">
-        <v>134.07670778</v>
+      <c r="C4" t="str">
+        <v>134.0767078</v>
       </c>
       <c r="D4" t="str">
         <v>木太出張所</v>
@@ -532,6 +538,9 @@
       <c r="G4" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
       <c r="I4" t="str">
         <v>月火水木金</v>
       </c>
@@ -546,14 +555,14 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" t="str">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="str">
         <v>34.33566417</v>
       </c>
-      <c r="C5">
-        <v>134.10751306</v>
+      <c r="C5" t="str">
+        <v>134.1075131</v>
       </c>
       <c r="D5" t="str">
         <v>古高松出張所</v>
@@ -567,6 +576,9 @@
       <c r="G5" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
       <c r="I5" t="str">
         <v>月火水木金</v>
       </c>
@@ -581,14 +593,14 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6">
+      <c r="A6" t="str">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="str">
         <v>34.34371056</v>
       </c>
-      <c r="C6">
-        <v>134.10129944</v>
+      <c r="C6" t="str">
+        <v>134.1012994</v>
       </c>
       <c r="D6" t="str">
         <v>屋島出張所</v>
@@ -602,6 +614,9 @@
       <c r="G6" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
       <c r="I6" t="str">
         <v>月火水木金</v>
       </c>
@@ -616,14 +631,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7">
+      <c r="A7" t="str">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="str">
         <v>34.29657167</v>
       </c>
-      <c r="C7">
-        <v>134.11258333</v>
+      <c r="C7" t="str">
+        <v>134.1125833</v>
       </c>
       <c r="D7" t="str">
         <v>前田出張所</v>
@@ -637,6 +652,9 @@
       <c r="G7" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
       <c r="I7" t="str">
         <v>月火水木金</v>
       </c>
@@ -651,14 +669,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8">
+      <c r="A8" t="str">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="str">
         <v>34.30697278</v>
       </c>
-      <c r="C8">
-        <v>134.08946833</v>
+      <c r="C8" t="str">
+        <v>134.0894683</v>
       </c>
       <c r="D8" t="str">
         <v>川添出張所</v>
@@ -672,6 +690,9 @@
       <c r="G8" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
       <c r="I8" t="str">
         <v>月火水木金</v>
       </c>
@@ -686,13 +707,13 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9">
+      <c r="A9" t="str">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="str">
         <v>34.29778</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="str">
         <v>134.07625</v>
       </c>
       <c r="D9" t="str">
@@ -707,6 +728,9 @@
       <c r="G9" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
       <c r="I9" t="str">
         <v>月火水木金</v>
       </c>
@@ -721,14 +745,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10">
+      <c r="A10" t="str">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="str">
         <v>34.27771639</v>
       </c>
-      <c r="C10">
-        <v>134.06947833</v>
+      <c r="C10" t="str">
+        <v>134.0694783</v>
       </c>
       <c r="D10" t="str">
         <v>三谷出張所</v>
@@ -742,6 +766,9 @@
       <c r="G10" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
       <c r="I10" t="str">
         <v>月火水木金</v>
       </c>
@@ -756,14 +783,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11">
+      <c r="A11" t="str">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="str">
         <v>34.29067333</v>
       </c>
-      <c r="C11">
-        <v>134.02893556</v>
+      <c r="C11" t="str">
+        <v>134.0289356</v>
       </c>
       <c r="D11" t="str">
         <v>一宮出張所</v>
@@ -777,6 +804,9 @@
       <c r="G11" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
       <c r="I11" t="str">
         <v>月火水木金</v>
       </c>
@@ -791,14 +821,14 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12">
+      <c r="A12" t="str">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="str">
         <v>34.29044611</v>
       </c>
-      <c r="C12">
-        <v>134.05146667</v>
+      <c r="C12" t="str">
+        <v>134.0514667</v>
       </c>
       <c r="D12" t="str">
         <v>多肥出張所</v>
@@ -812,6 +842,9 @@
       <c r="G12" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
+      <c r="H12" t="str">
+        <v/>
+      </c>
       <c r="I12" t="str">
         <v>月火水木金</v>
       </c>
@@ -826,14 +859,14 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13">
+      <c r="A13" t="str">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="str">
         <v>34.26941694</v>
       </c>
-      <c r="C13">
-        <v>134.00998778</v>
+      <c r="C13" t="str">
+        <v>134.0099878</v>
       </c>
       <c r="D13" t="str">
         <v>川岡出張所</v>
@@ -847,6 +880,9 @@
       <c r="G13" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
       <c r="I13" t="str">
         <v>月火水木金</v>
       </c>
@@ -861,14 +897,14 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14">
+      <c r="A14" t="str">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="str">
         <v>34.28543722</v>
       </c>
-      <c r="C14">
-        <v>134.00547111</v>
+      <c r="C14" t="str">
+        <v>134.0054711</v>
       </c>
       <c r="D14" t="str">
         <v>円座出張所</v>
@@ -882,6 +918,9 @@
       <c r="G14" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
       <c r="I14" t="str">
         <v>月火水木金</v>
       </c>
@@ -896,14 +935,14 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15">
+      <c r="A15" t="str">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="str">
         <v>34.30092139</v>
       </c>
-      <c r="C15">
-        <v>133.99466861</v>
+      <c r="C15" t="str">
+        <v>133.9946686</v>
       </c>
       <c r="D15" t="str">
         <v>檀紙出張所</v>
@@ -917,6 +956,9 @@
       <c r="G15" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
       <c r="I15" t="str">
         <v>月火水木金</v>
       </c>
@@ -931,13 +973,13 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16">
+      <c r="A16" t="str">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="str">
         <v>34.329246</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="str">
         <v>134.005738</v>
       </c>
       <c r="D16" t="str">
@@ -952,6 +994,9 @@
       <c r="G16" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
       <c r="I16" t="str">
         <v>月火水木金</v>
       </c>
@@ -966,13 +1011,13 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17">
+      <c r="A17" t="str">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="str">
         <v>34.327365</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="str">
         <v>133.993302</v>
       </c>
       <c r="D17" t="str">
@@ -987,6 +1032,9 @@
       <c r="G17" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
       <c r="I17" t="str">
         <v>月火水木金</v>
       </c>
@@ -1001,13 +1049,13 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18">
+      <c r="A18" t="str">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="str">
         <v>34.359028</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="str">
         <v>133.968806</v>
       </c>
       <c r="D18" t="str">
@@ -1022,6 +1070,9 @@
       <c r="G18" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
       <c r="I18" t="str">
         <v>月火水木金</v>
       </c>
@@ -1036,20 +1087,20 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19">
+      <c r="A19" t="str">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>34.42212</v>
-      </c>
-      <c r="C19">
-        <v>134.05479</v>
+      <c r="B19" t="str">
+        <v>34.42261118280801</v>
+      </c>
+      <c r="C19" t="str">
+        <v>134.054250875989</v>
       </c>
       <c r="D19" t="str">
         <v>男木出張所</v>
       </c>
       <c r="E19" t="str">
-        <v>高松市男木町134</v>
+        <v>高松市男木町1988</v>
       </c>
       <c r="F19" t="str">
         <v>087-873-0001</v>
@@ -1057,6 +1108,9 @@
       <c r="G19" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
+      <c r="H19" t="str">
+        <v/>
+      </c>
       <c r="I19" t="str">
         <v>月火水木金</v>
       </c>
@@ -1064,20 +1118,20 @@
         <v>09:00</v>
       </c>
       <c r="K19" t="str">
-        <v>17:00</v>
+        <v>16:45</v>
       </c>
       <c r="L19" t="str">
         <v>国民の祝日に関する法律に規定する休日及び年末年始（１２月２９日から翌年の１月３日まで）は利用不可。</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20">
+      <c r="A20" t="str">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="str">
         <v>34.39210389</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="str">
         <v>134.0517525</v>
       </c>
       <c r="D20" t="str">
@@ -1091,6 +1145,9 @@
       </c>
       <c r="G20" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
+      </c>
+      <c r="H20" t="str">
+        <v/>
       </c>
       <c r="I20" t="str">
         <v>月火水木金</v>
